--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Bank.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Bank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\sys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E59BBF5-E4F4-4531-BC78-EB569E8AC331}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065F22D9-D175-4F7C-9BD0-2E04DFC35336}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE04B4F9-A25C-467F-A9F7-532F94F32144}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,7 +519,7 @@
     <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Bank.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065F22D9-D175-4F7C-9BD0-2E04DFC35336}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B93DF4D-A0FD-4CED-86B2-56470B484517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>bank_code</t>
   </si>
@@ -61,13 +61,19 @@
   <si>
     <t>รหัส  ข้อมูลธนาคาร
 ความยาวไม่เกิน 5 ตัว</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +88,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +106,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -120,11 +138,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -136,9 +155,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -506,10 +532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE04B4F9-A25C-467F-A9F7-532F94F32144}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,9 +543,10 @@
     <col min="1" max="1" width="27.90625" customWidth="1"/>
     <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="5" max="6" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -529,8 +556,10 @@
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -540,8 +569,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -551,8 +586,10 @@
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -562,8 +599,10 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -573,8 +612,13 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E5"/>
+      <c r="F5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Bank.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B93DF4D-A0FD-4CED-86B2-56470B484517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81F0E93-4267-46F5-969F-D3F93C6E80BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>bank_code</t>
   </si>
@@ -30,27 +30,6 @@
   </si>
   <si>
     <t>bank_name_en</t>
-  </si>
-  <si>
-    <t>BKK</t>
-  </si>
-  <si>
-    <t>KTB</t>
-  </si>
-  <si>
-    <t>กรุงเทพ</t>
-  </si>
-  <si>
-    <t>Bangkok</t>
-  </si>
-  <si>
-    <t>กรุงไทย</t>
-  </si>
-  <si>
-    <t>SCB</t>
-  </si>
-  <si>
-    <t>ไทยพาณิชย์</t>
   </si>
   <si>
     <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 100 ตัว</t>
@@ -67,6 +46,132 @@
   </si>
   <si>
     <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>รหัสบริษัท</t>
+  </si>
+  <si>
+    <t>company_code</t>
+  </si>
+  <si>
+    <t>OPR</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>ธนาคารกรุงเทพ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>Bangkok Bank Public Company Limited</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>ธนาคารกสิกรไทย จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>Kasikorn Bank Public Company Limited</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>ธนาคารกรุงไทย จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>Krungthai Bank Public Company Limited</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>ธนาคารสแตนดาร์ดชาร์เตอร์</t>
+  </si>
+  <si>
+    <t>Stanadard Chartered Bank</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>ธนาคารทหารไทย จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>The Thai Military Bank Public Company Limited</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>ธนาคารไทยพาณิชย์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>The Saim Commercial Bank Public Company Limited</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>ธนาคารยูโอบีรัตนสิน จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>UOB Ratanasin Bank Public Company Limited</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>ธนาคารสแตนดาร์ดชาร์เตอร์นครธน จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>Stanadard Chartered Nakornthon Bank Public Company</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>ธนาคารเอเซีย จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>Bank of Asia Public Company Limited</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>ธนาคารกรุงศรีอยุธยา จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>Bank of Ayudhaya Public Company Limited</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>ธนาคารออมสิน</t>
+  </si>
+  <si>
+    <t>The Government Savings Bank</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>ธนาคารดอยแบงค์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>Deutsche Bank</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>ธนาคารศรีวิราช จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>Srivirach Bank Public Company Limited</t>
   </si>
 </sst>
 </file>
@@ -143,7 +248,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -161,6 +266,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -501,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,16 +619,20 @@
     <col min="1" max="1" width="24.54296875" customWidth="1"/>
     <col min="2" max="2" width="31.90625" customWidth="1"/>
     <col min="3" max="3" width="30.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -532,10 +643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE04B4F9-A25C-467F-A9F7-532F94F32144}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,77 +654,233 @@
     <col min="1" max="1" width="27.90625" customWidth="1"/>
     <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="45.90625" customWidth="1"/>
     <col min="5" max="6" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
+      <c r="A1" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Bank.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81F0E93-4267-46F5-969F-D3F93C6E80BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B4EBBF-C264-4CE9-B287-372DB6C6D05D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>bank_code</t>
   </si>
@@ -46,15 +46,6 @@
   </si>
   <si>
     <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>รหัสบริษัท</t>
-  </si>
-  <si>
-    <t>company_code</t>
-  </si>
-  <si>
-    <t>OPR</t>
   </si>
   <si>
     <t>002</t>
@@ -263,11 +254,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -608,31 +599,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
-    <col min="2" max="2" width="31.90625" customWidth="1"/>
-    <col min="3" max="3" width="30.54296875" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -643,248 +630,202 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE04B4F9-A25C-467F-A9F7-532F94F32144}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.90625" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="45.90625" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="45.90625" customWidth="1"/>
+    <col min="4" max="5" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
